--- a/biology/Médecine/Christophe_Delong/Christophe_Delong.xlsx
+++ b/biology/Médecine/Christophe_Delong/Christophe_Delong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Delong est né le 9 février 1966.
 Il est chef du service de médecine physique et de réadaptation de l'Hôpital Sainte-Périne (Paris) Assistance publique - hôpitaux de Paris, ainsi que praticien libéral en Médecine du sport dans un cabinet privé de Boulogne-Billancourt.
@@ -513,7 +525,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guide Pratique de Médecine du Sport, Collectif, MMI Editions 2000,  (ISBN 2901227325)
 Le mal de dos, Flammarion 2004,  (ISBN 2082012182)
@@ -547,7 +561,9 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre des Sociétés Françaises de Médecine Physique et de Réadaptation - Rééducation, de Médecine du Sport, de Traumatologie du Sport.
 </t>
@@ -578,7 +594,9 @@
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Facultés de Médecine Necker-Enfants Malades, Cochin – Port Royal -Université Paris Descartes
 Broussais – Hôtel Dieu, La Pitié Salpêtrière - Université de Paris VI
